--- a/Documentação/Tabelas_LN/cisli940-Nota Fiscal.xlsx
+++ b/Documentação/Tabelas_LN/cisli940-Nota Fiscal.xlsx
@@ -327,7 +327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="489">
   <si>
     <t/>
   </si>
@@ -1715,6 +1715,15 @@
     <t>Processo de suspensão de ISS</t>
   </si>
   <si>
+    <t>nfss.l</t>
+  </si>
+  <si>
+    <t>cisli940.nfss.l</t>
+  </si>
+  <si>
+    <t>NFSe Substituição</t>
+  </si>
+  <si>
     <t>dcsg.c</t>
   </si>
   <si>
@@ -1757,13 +1766,34 @@
     <t>Ramo de atividade</t>
   </si>
   <si>
-    <t>glo1</t>
-  </si>
-  <si>
-    <t>rcd_utc</t>
-  </si>
-  <si>
-    <t>Data e hora de atualização do registro</t>
+    <t>mcan.c</t>
+  </si>
+  <si>
+    <t>csel</t>
+  </si>
+  <si>
+    <t>cisli940.mcan.c</t>
+  </si>
+  <si>
+    <t>Cód.Motivo Cancelamento</t>
+  </si>
+  <si>
+    <t>blqc.c</t>
+  </si>
+  <si>
+    <t>cisli940.blqc.c</t>
+  </si>
+  <si>
+    <t>Bloqueio de Cancelamento</t>
+  </si>
+  <si>
+    <t>impa.c</t>
+  </si>
+  <si>
+    <t>cisli940.impa.c</t>
+  </si>
+  <si>
+    <t>Impressão automática</t>
   </si>
 </sst>
 </file>
@@ -1780,20 +1810,20 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color indexed="60"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color indexed="9"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2133,32 +2163,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K107" sqref="K107:R107"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -9357,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="4">
-        <v>503</v>
+        <v>128</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>462</v>
@@ -9366,22 +9396,22 @@
         <v>8</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="N129" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O129" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P129" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q129" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="O129" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P129" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q129" s="4" t="s">
+      <c r="R129" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="R129" s="4" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -9413,25 +9443,25 @@
         <v>0</v>
       </c>
       <c r="J130" s="4">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K130" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N130" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="L130" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M130" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N130" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="O130" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P130" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q130" s="4" t="s">
         <v>467</v>
@@ -9469,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="4">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>469</v>
@@ -9481,13 +9511,13 @@
         <v>40</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O131" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P131" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q131" s="4" t="s">
         <v>470</v>
@@ -9525,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="4">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>472</v>
@@ -9537,19 +9567,19 @@
         <v>40</v>
       </c>
       <c r="N132" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O132" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P132" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q132" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="O132" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P132" s="4">
-        <v>6</v>
-      </c>
-      <c r="Q132" s="4" t="s">
+      <c r="R132" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="R132" s="4" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -9575,22 +9605,205 @@
         <v>37</v>
       </c>
       <c r="H133" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I133" s="4">
+        <v>0</v>
+      </c>
+      <c r="J133" s="4">
+        <v>506</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N133" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="I133" s="4">
-        <v>0</v>
-      </c>
-      <c r="K133" s="5" t="s">
+      <c r="O133" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P133" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q133" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="O133" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P133" s="4">
-        <v>22</v>
       </c>
       <c r="R133" s="4" t="s">
         <v>478</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="A134" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I134" s="4">
+        <v>0</v>
+      </c>
+      <c r="J134" s="4">
+        <v>507</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="O134" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P134" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q134" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="R134" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
+      <c r="A135" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I135" s="4">
+        <v>0</v>
+      </c>
+      <c r="J135" s="4">
+        <v>508</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N135" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O135" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P135" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q135" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="R135" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
+      <c r="A136" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I136" s="4">
+        <v>0</v>
+      </c>
+      <c r="J136" s="4">
+        <v>509</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O136" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P136" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q136" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="R136" s="4" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -9603,7 +9816,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
